--- a/TRIBUTARYLENGTH.xlsx
+++ b/TRIBUTARYLENGTH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\EXP-LTD\MISC\STRUCT\People\BAW\Innovation Playground\Excel Function Examples\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\EXP-LTD\MISC\STRUCT\People\BAW\Innovation Playground\Excel Function Examples\LAMBDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032B333F-4530-4C57-B34C-1837CAAEE12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D487A4B-55AC-49AA-9B0C-A1E791A13DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16425" windowWidth="16440" windowHeight="28320" xr2:uid="{556766B2-9450-4EF9-B297-7096D9E64B35}"/>
+    <workbookView xWindow="-120" yWindow="-16515" windowWidth="29040" windowHeight="15720" xr2:uid="{556766B2-9450-4EF9-B297-7096D9E64B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1022,6 +1022,210 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C58642-E435-DB03-6270-2D9BD59ABC00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="529590" y="3348991"/>
+          <a:ext cx="5328285" cy="2933699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>=LAMBDA(coordinates,[LHS_overhang],[RHS_overhang],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>    LET(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>        x, coordinates,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>        LHS_OH, IF(ISOMITTED(LHS_overhang), 0, LHS_overhang),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>        RHS_OH, IF(ISOMITTED(RHS_overhang), 0, RHS_overhang),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>        LHS_trib, VSTACK(0,DROP((x - VSTACK(0, DROP(x, -1))),1)) / 2,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>        RHS_trib, VSTACK(DROP(ABS((x - VSTACK(DROP(x, 1), 0)) / 2), -1), 0),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>        n, ROWS(x),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>        trib, LHS_trib + RHS_trib,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>        result, MAP(trib, LAMBDA(tribi,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>            IF(tribi = INDEX(trib, 1), tribi + LHS_OH,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>            IF(tribi = INDEX(trib, n), tribi + RHS_OH, tribi))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>        )),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>        result</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>    )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" kern="1200"/>
+            <a:t>)(B6:B8,C2,C3)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACD098D-FBAA-4BC9-31B3-F4157C04F226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="533400" y="1390650"/>
+          <a:ext cx="1091565" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1345,7 +1549,7 @@
   <dimension ref="A2:D49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
